--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCA0D78-57E9-3F40-9F48-9FBE3C0F2CDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A2B8CE-4A9E-2443-AB4A-89496650CDE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31580" yWindow="420" windowWidth="27900" windowHeight="15820" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
-    <sheet name="processed" sheetId="3" r:id="rId2"/>
-    <sheet name="features" sheetId="4" r:id="rId3"/>
+    <sheet name="feather" sheetId="5" r:id="rId2"/>
+    <sheet name="processed" sheetId="6" r:id="rId3"/>
+    <sheet name="features" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="97">
   <si>
     <t>テーブル名</t>
   </si>
@@ -53,9 +54,6 @@
   </si>
   <si>
     <t>NULL + 空文字</t>
-  </si>
-  <si>
-    <t>件数:</t>
   </si>
   <si>
     <t>COUNT(DISTNCT)</t>
@@ -289,6 +287,61 @@
   </si>
   <si>
     <t>test.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数:201917</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数:123623</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数:29112361</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数:1963031</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数:334696</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配布資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inf-&gt;NA,</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -674,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -716,629 +769,629 @@
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1348,11 +1401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B581F3D-A67D-DC40-8C78-EB9E3CAD79D3}">
-  <dimension ref="A1:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1361,16 +1414,17 @@
     <col min="2" max="2" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1"/>
     <col min="4" max="4" width="87.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="87.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1381,641 +1435,955 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4" s="1">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>201917</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" s="1">
+        <v>-33.22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="F11" s="1">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>123623</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="1" t="s">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="1" t="s">
-        <v>26</v>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="B33" s="1" t="s">
-        <v>26</v>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:5">
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:5">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:5">
+      <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:5">
+      <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:5">
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="2:5">
+      <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:5">
+      <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:5">
+      <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:5">
+      <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2025,6 +2393,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D224C3D-3700-2046-96EE-A047D0C1D082}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101B533-10DB-2F4F-81EA-CF8BED891E21}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A2B8CE-4A9E-2443-AB4A-89496650CDE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D40403-7D9F-EC42-A91B-50AD87EC2A30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="processed" sheetId="6" r:id="rId3"/>
     <sheet name="features" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="128">
   <si>
     <t>テーブル名</t>
   </si>
@@ -341,7 +341,179 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Inf-&gt;NA,</t>
+    <t>Y' if approved, 'N' if denied (Yes:91.3% ,No:8.7%)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized category (N: 92.8%, Y: 7.2%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized category (A: 53.3%, B: 40.4%, C: 6.4%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>month lag to reference date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基準日までの月差, 時系列情報</t>
+    <rPh sb="0" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Normalized purchase amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正規化された購入金額</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入日付</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>州のid</t>
+    <rPh sb="0" eb="1">
+      <t>シュウノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お店のカテゴリid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y' if approved, 'N' if denied (Yes:100%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>City identifier (anonymized )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized category (N: 96.8%, Y: 3.2%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized category (A: 48.4%, B: 43.9%, C: 7.8%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匿名化されたカテゴリ1</t>
+    <rPh sb="0" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匿名化されたカテゴリ3</t>
+    <rPh sb="0" eb="1">
+      <t>トクメイカサレタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匿名化されたカテゴリ2</t>
+    <rPh sb="0" eb="1">
+      <t>トクメイカサレタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Monthly average of transactions in last 3 months divided by transactions in last active month</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去3ヶ月以内に取引があったか?ほぼ3になるはず</t>
+    <rPh sb="0" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Monthly average of revenue in last 3 months divided by revenue in last active month</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去3ヶ月の収益の月平均を直近の月の収益で割ったもの</t>
+    <rPh sb="0" eb="2">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inf-&gt;NA,過去3か月の取引の月平均を直近の月の取引で割ったもの</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized category (N: 71.38%, Y: 28.7%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去6ヶ月の収益の月平均を直近の月の収益で割ったもの</t>
+    <rPh sb="0" eb="2">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inf-&gt;NA,過去6か月の取引の月平均を直近の月の取引で割ったもの</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去6ヶ月以内に取引があったか?ほぼ3になるはず</t>
+    <rPh sb="0" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去12ヶ月の収益の月平均を直近の月の収益で割ったもの</t>
+    <rPh sb="0" eb="2">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inf-&gt;NA,過去12か月の取引の月平均を直近の月の取引で割ったもの</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去12ヶ月以内に取引があったか?ほぼ3になるはず</t>
+    <rPh sb="0" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Range of revenue (monetary units) in last active month --&gt; A &gt; B &gt; C &gt; D &gt; E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一のmerchant_idが複数回ある</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized measure</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -349,6 +521,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -401,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +584,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,988 +1586,1924 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="87.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4">
+        <v>40848</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43132</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <f>I4/201917</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>201917</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J9" si="0">I5/201917</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>197110</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-33.22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40848</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43101</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <f>I11/123623</f>
+        <v>8.0891096317028384E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>123623</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J14" si="1">I12/123623</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f>I15/123623</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f>I17/29112361</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>325540</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" ref="J18:J30" si="2">I18/29112361</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1">
+        <v>308</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>178159</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>6.1197028987102766E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
+        <v>327</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>891</v>
+      </c>
+      <c r="H23" s="1">
+        <v>481.01</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>326311</v>
+      </c>
+      <c r="I24" s="1">
+        <v>138481</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7567766832789689E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-4.49</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1">
+        <v>215014</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6010603.9699999997</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="1">
+        <v>16395300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>42736.000092592592</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43159.999895833331</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2652864</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>9.1125003568072002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>I32/1963031</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1">
+        <v>290001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" ref="J33:J45" si="3">I33/1963031</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="1">
+        <v>308</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>347</v>
+      </c>
+      <c r="H34" s="1">
+        <v>134.38999999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>55922</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8487578647509896E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="1">
+        <v>314</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>891</v>
+      </c>
+      <c r="H38" s="1">
+        <v>430.97</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1">
+        <v>226129</v>
+      </c>
+      <c r="I39" s="1">
+        <v>26216</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3354857870303627E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="1">
+        <v>75190</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G41" s="1">
+        <v>263.16000000000003</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1667025</v>
+      </c>
+      <c r="F42" s="3">
+        <v>42795.142256944448</v>
+      </c>
+      <c r="G42" s="3">
+        <v>43220.999988425923</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I43" s="1">
+        <v>111745</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6924725080755217E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="1">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>41</v>
+      </c>
+      <c r="H45" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="1">
+        <v>334633</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <f>I47/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="1">
+        <v>109391</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>112586</v>
+      </c>
+      <c r="H48" s="1">
+        <v>31028.74</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" ref="J48:J68" si="4">I48/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="1">
+        <v>324</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>891</v>
+      </c>
+      <c r="H49" s="1">
+        <v>423.13</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="1">
+        <v>41</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>41</v>
+      </c>
+      <c r="H50" s="1">
+        <v>25.12</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="1">
+        <v>954</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G51" s="1">
+        <v>183.74</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="1">
+        <v>947</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G52" s="1">
+        <v>182.08</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3372</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G56" s="1">
+        <v>851844.64</v>
+      </c>
+      <c r="H56" s="1">
+        <v>13.83</v>
+      </c>
+      <c r="I56" s="1">
+        <v>13</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="1">
+        <v>100002</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G57" s="1">
+        <v>61851.33</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="4"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4507</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1513959</v>
+      </c>
+      <c r="H59" s="1">
+        <v>21.65</v>
+      </c>
+      <c r="I59" s="1">
+        <v>13</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="1">
+        <v>135201</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G60" s="1">
+        <v>56077.5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="4"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>6</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5009</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2567408</v>
+      </c>
+      <c r="H62" s="1">
+        <v>25.23</v>
+      </c>
+      <c r="I62" s="1">
+        <v>13</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="1">
+        <v>172916</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>50215.56</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="I63" s="1">
+        <v>3</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="4"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>12</v>
+      </c>
+      <c r="H64" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>75</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>201917</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="C66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="1">
+        <v>271</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>347</v>
+      </c>
+      <c r="H66" s="1">
+        <v>102.92</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="1">
+        <v>25</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G68" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
-        <v>3.11</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-33.22</v>
-      </c>
-      <c r="H9" s="1">
-        <v>17.97</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-0.39</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>75</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1">
-        <v>123623</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3.11</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="B41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="B42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="B44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="B45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="B47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="B48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>42</v>
+      <c r="H68" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="I68" s="1">
+        <v>11887</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5515811363147451E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D40403-7D9F-EC42-A91B-50AD87EC2A30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F2318-0979-B844-A9C3-B21F5CF55FB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="130">
   <si>
     <t>テーブル名</t>
   </si>
@@ -360,13 +355,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>基準日までの月差, 時系列情報</t>
-    <rPh sb="0" eb="3">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Normalized purchase amount</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -509,11 +497,54 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同一のmerchant_idが複数回ある</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>anonymized measure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number of installments of purchase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">支払いの分割数, -1ってなんだ?, 値(-1 ~ 12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ブンカツスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基準日までの月差, 時系列情報 (負なら過去の情報?, 正なら未来の情報?)</t>
+    <rPh sb="0" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一のmerchant_idが複数回ある, 店舗が変わったとか?</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -522,9 +553,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,8 +578,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,7 +636,10 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1588,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+      <selection pane="topRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2077,6 +2124,12 @@
       <c r="E19" s="1">
         <v>308</v>
       </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>347</v>
+      </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
@@ -2096,7 +2149,7 @@
         <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2117,7 +2170,10 @@
         <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E21" s="1">
         <v>15</v>
@@ -2150,7 +2206,7 @@
         <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -2225,7 +2281,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1">
         <v>14</v>
@@ -2255,10 +2311,10 @@
         <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="1">
         <v>215014</v>
@@ -2291,7 +2347,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1">
         <v>16395300</v>
@@ -2321,7 +2377,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2354,7 +2410,7 @@
         <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1">
         <v>25</v>
@@ -2387,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1">
         <v>41</v>
@@ -2445,7 +2501,7 @@
         <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2487,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1">
         <v>308</v>
@@ -2517,10 +2573,10 @@
         <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -2543,6 +2599,9 @@
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E36" s="1">
         <v>15</v>
       </c>
@@ -2571,10 +2630,10 @@
         <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -2649,7 +2708,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -2682,7 +2741,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="1">
         <v>75190</v>
@@ -2715,7 +2774,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1">
         <v>1667025</v>
@@ -2745,7 +2804,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -2778,7 +2837,7 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1">
         <v>25</v>
@@ -2811,7 +2870,7 @@
         <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="1">
         <v>41</v>
@@ -2871,8 +2930,8 @@
       <c r="C47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>126</v>
+      <c r="D47" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E47" s="1">
         <v>334633</v>
@@ -2983,7 +3042,7 @@
         <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" s="1">
         <v>954</v>
@@ -3064,7 +3123,7 @@
         <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
@@ -3106,10 +3165,10 @@
         <v>92</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E56" s="1">
         <v>3372</v>
@@ -3139,10 +3198,10 @@
         <v>92</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1">
         <v>100002</v>
@@ -3175,7 +3234,7 @@
         <v>76</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
@@ -3208,7 +3267,7 @@
         <v>77</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="1">
         <v>4507</v>
@@ -3241,7 +3300,7 @@
         <v>78</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="1">
         <v>135201</v>
@@ -3274,7 +3333,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1">
         <v>6</v>
@@ -3307,7 +3366,7 @@
         <v>80</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="1">
         <v>5009</v>
@@ -3340,7 +3399,7 @@
         <v>81</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" s="1">
         <v>172916</v>
@@ -3373,7 +3432,7 @@
         <v>82</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="1">
         <v>12</v>
@@ -3403,7 +3462,7 @@
         <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F2318-0979-B844-A9C3-B21F5CF55FB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04980BFB-5EEA-214C-BFF3-94467BDCEFF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1635,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D47" sqref="D47"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04980BFB-5EEA-214C-BFF3-94467BDCEFF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B010D8-7721-4845-8817-0F7DF8F109F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -22,6 +22,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1635,9 +1640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B010D8-7721-4845-8817-0F7DF8F109F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACAE8AD-1E58-684F-8E2E-A1A8558E7748}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="133">
   <si>
     <t>テーブル名</t>
   </si>
@@ -550,6 +550,18 @@
     <rPh sb="0" eb="2">
       <t>テンポ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merchant_label_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merchant_idにlabel_encoding</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1638,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2112,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18:J30" si="2">I18/29112361</f>
+        <f t="shared" ref="J18:J31" si="2">I18/29112361</f>
         <v>0</v>
       </c>
     </row>
@@ -2277,61 +2289,49 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-13</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>-4.49</v>
+        <v>326311</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>138481</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.7567766832789689E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1">
-        <v>215014</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1">
-        <v>-0.75</v>
+        <v>-13</v>
       </c>
       <c r="G26" s="1">
-        <v>6010603.9699999997</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0.04</v>
+        <v>-4.49</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2343,25 +2343,28 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1">
-        <v>16395300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>42736.000092592592</v>
-      </c>
-      <c r="G27" s="3">
-        <v>43159.999895833331</v>
+        <v>215014</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6010603.9699999997</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.04</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2373,94 +2376,91 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2.19</v>
+        <v>16395300</v>
+      </c>
+      <c r="F28" s="3">
+        <v>42736.000092592592</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43159.999895833331</v>
       </c>
       <c r="I28" s="1">
-        <v>2652864</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="2"/>
-        <v>9.1125003568072002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1">
-        <v>10.57</v>
+        <v>2.19</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>2652864</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.1125003568072002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F30" s="1">
         <v>-1</v>
       </c>
       <c r="G30" s="1">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1">
-        <v>26.85</v>
+        <v>10.57</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2471,120 +2471,129 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="1">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <f>I32/1963031</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1">
-        <v>290001</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33:J45" si="3">I33/1963031</f>
+        <f>I33/1963031</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1">
-        <v>308</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>347</v>
-      </c>
-      <c r="H34" s="1">
-        <v>134.38999999999999</v>
+        <v>290001</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J34:J47" si="3">I34/1963031</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>308</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>347</v>
+      </c>
+      <c r="H35" s="1">
+        <v>134.38999999999999</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2596,28 +2605,19 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>999</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.68</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2629,166 +2629,157 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.68</v>
       </c>
       <c r="I37" s="1">
-        <v>55922</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="3"/>
-        <v>2.8487578647509896E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E38" s="1">
-        <v>314</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>891</v>
-      </c>
-      <c r="H38" s="1">
-        <v>430.97</v>
+        <v>3</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>55922</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8487578647509896E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1">
-        <v>226129</v>
+        <v>314</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>891</v>
+      </c>
+      <c r="H39" s="1">
+        <v>430.97</v>
       </c>
       <c r="I39" s="1">
-        <v>26216</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" si="3"/>
-        <v>1.3354857870303627E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1.48</v>
+        <v>226129</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>26216</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3354857870303627E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1">
-        <v>75190</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="G41" s="1">
-        <v>263.16000000000003</v>
-      </c>
-      <c r="H41" s="1">
-        <v>-0.55000000000000004</v>
+        <v>226129</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>26216</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3354857870303627E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E42" s="1">
-        <v>1667025</v>
-      </c>
-      <c r="F42" s="3">
-        <v>42795.142256944448</v>
-      </c>
-      <c r="G42" s="3">
-        <v>43220.999988425923</v>
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.48</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2800,61 +2791,58 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E43" s="1">
-        <v>5</v>
+        <v>75190</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>263.16000000000003</v>
       </c>
       <c r="H43" s="1">
-        <v>2.2000000000000002</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="I43" s="1">
-        <v>111745</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5">
         <f t="shared" si="3"/>
-        <v>5.6924725080755217E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1">
-        <v>25</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>24</v>
-      </c>
-      <c r="H44" s="1">
-        <v>10.88</v>
+        <v>1667025</v>
+      </c>
+      <c r="F44" s="3">
+        <v>42795.142256944448</v>
+      </c>
+      <c r="G44" s="3">
+        <v>43220.999988425923</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -2866,230 +2854,227 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E45" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
-        <v>25.98</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>111745</v>
       </c>
       <c r="J45" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6924725080755217E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>12</v>
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>24</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>129</v>
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E47" s="1">
-        <v>334633</v>
+        <v>41</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>41</v>
+      </c>
+      <c r="H47" s="1">
+        <v>25.98</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <f>I47/334696</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="1">
-        <v>109391</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>112586</v>
-      </c>
-      <c r="H48" s="1">
-        <v>31028.74</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <f t="shared" ref="J48:J68" si="4">I48/334696</f>
-        <v>0</v>
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E49" s="1">
-        <v>324</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>891</v>
-      </c>
-      <c r="H49" s="1">
-        <v>423.13</v>
+        <v>334633</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="4"/>
+        <f>I49/334696</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E50" s="1">
-        <v>41</v>
-      </c>
-      <c r="F50" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>41</v>
-      </c>
-      <c r="H50" s="1">
-        <v>25.12</v>
+        <v>334633</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="4"/>
+        <f>I50/334696</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="E51" s="1">
-        <v>954</v>
+        <v>109391</v>
       </c>
       <c r="F51" s="1">
-        <v>-0.06</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>183.74</v>
+        <v>112586</v>
       </c>
       <c r="H51" s="1">
-        <v>0.01</v>
+        <v>31028.74</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J51:J71" si="4">I51/334696</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="1">
-        <v>947</v>
+        <v>324</v>
       </c>
       <c r="F52" s="1">
-        <v>-0.06</v>
+        <v>-1</v>
       </c>
       <c r="G52" s="1">
-        <v>182.08</v>
+        <v>891</v>
       </c>
       <c r="H52" s="1">
-        <v>0.01</v>
+        <v>423.13</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -3101,16 +3086,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>41</v>
+      </c>
+      <c r="H53" s="1">
+        <v>25.12</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -3122,16 +3116,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>954</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G54" s="1">
+        <v>183.74</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.01</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -3143,16 +3146,25 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
+        <v>947</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G55" s="1">
+        <v>182.08</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.01</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -3164,94 +3176,58 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1">
-        <v>3372</v>
-      </c>
-      <c r="F56" s="1">
-        <v>-82.13</v>
-      </c>
-      <c r="G56" s="1">
-        <v>851844.64</v>
-      </c>
-      <c r="H56" s="1">
-        <v>13.83</v>
+        <v>2</v>
       </c>
       <c r="I56" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5">
         <f t="shared" si="4"/>
-        <v>3.8841217104476896E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1">
-        <v>100002</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G57" s="1">
-        <v>61851.33</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1.59</v>
+        <v>5</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5">
         <f t="shared" si="4"/>
-        <v>8.9633577933408233E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2.99</v>
+        <v>5</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -3263,28 +3239,28 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E59" s="1">
-        <v>4507</v>
+        <v>3372</v>
       </c>
       <c r="F59" s="1">
         <v>-82.13</v>
       </c>
       <c r="G59" s="1">
-        <v>1513959</v>
+        <v>851844.64</v>
       </c>
       <c r="H59" s="1">
-        <v>21.65</v>
+        <v>13.83</v>
       </c>
       <c r="I59" s="1">
         <v>13</v>
@@ -3296,28 +3272,28 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1">
-        <v>135201</v>
+        <v>100002</v>
       </c>
       <c r="F60" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G60" s="1">
-        <v>56077.5</v>
+        <v>61851.33</v>
       </c>
       <c r="H60" s="1">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="I60" s="1">
         <v>3</v>
@@ -3329,28 +3305,28 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H61" s="1">
-        <v>5.95</v>
+        <v>2.99</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -3362,28 +3338,28 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1">
-        <v>5009</v>
+        <v>4507</v>
       </c>
       <c r="F62" s="1">
         <v>-82.13</v>
       </c>
       <c r="G62" s="1">
-        <v>2567408</v>
+        <v>1513959</v>
       </c>
       <c r="H62" s="1">
-        <v>25.23</v>
+        <v>21.65</v>
       </c>
       <c r="I62" s="1">
         <v>13</v>
@@ -3395,28 +3371,28 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E63" s="1">
-        <v>172916</v>
+        <v>135201</v>
       </c>
       <c r="F63" s="1">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="G63" s="1">
-        <v>50215.56</v>
+        <v>56077.5</v>
       </c>
       <c r="H63" s="1">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="I63" s="1">
         <v>3</v>
@@ -3428,28 +3404,28 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E64" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
       </c>
       <c r="G64" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H64" s="1">
-        <v>11.6</v>
+        <v>5.95</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -3461,76 +3437,94 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>5009</v>
+      </c>
+      <c r="F65" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2567408</v>
+      </c>
+      <c r="H65" s="1">
+        <v>25.23</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E66" s="1">
-        <v>271</v>
+        <v>172916</v>
       </c>
       <c r="F66" s="1">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="G66" s="1">
-        <v>347</v>
+        <v>50215.56</v>
       </c>
       <c r="H66" s="1">
-        <v>102.92</v>
+        <v>2.08</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E67" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H67" s="1">
-        <v>11.86</v>
+        <v>11.6</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -3542,30 +3536,111 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="1">
+        <v>271</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>347</v>
+      </c>
+      <c r="H69" s="1">
+        <v>102.92</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="1">
+        <v>25</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E71" s="1">
         <v>5</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F71" s="1">
         <v>1</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G71" s="1">
         <v>5</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H71" s="1">
         <v>2.38</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I71" s="1">
         <v>11887</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J71" s="5">
         <f t="shared" si="4"/>
         <v>3.5515811363147451E-2</v>
       </c>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACAE8AD-1E58-684F-8E2E-A1A8558E7748}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6FD2D-399B-BE4B-B3A0-1B7253E550FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="136">
   <si>
     <t>テーブル名</t>
   </si>
@@ -562,6 +562,18 @@
   </si>
   <si>
     <t>merchant_idにlabel_encoding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>train_data + test_data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>train_data(179,986) + test_data(110,015)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>train data, test dataで一致はない</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1652,9 +1664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1761,6 +1773,9 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E5" s="1">
         <v>201917</v>
       </c>
@@ -1957,6 +1972,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="1">
         <v>123623</v>
       </c>
@@ -2117,6 +2135,9 @@
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E18" s="1">
         <v>325540</v>
       </c>
@@ -2561,6 +2582,9 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E34" s="1">
         <v>290001</v>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6FD2D-399B-BE4B-B3A0-1B7253E550FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713277D-C17A-7444-9902-5AA062FFED57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -1664,9 +1664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713277D-C17A-7444-9902-5AA062FFED57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76844748-B5E6-724C-B57E-FAF26FA9D6EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="140">
   <si>
     <t>テーブル名</t>
   </si>
@@ -576,6 +576,25 @@
     <t>train data, test dataで一致はない</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>target_class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>targetにおいて, -30&lt;:1, -30&gt;=かつ 0&lt;:2 , 0&gt;=: 3とする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1:2207, 2:100471, 3:99239)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理名 (青字は非特徴量)</t>
+    <rPh sb="0" eb="2">
+      <t>アオジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,6 +629,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
@@ -649,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +695,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,11 +1691,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1690,7 +1719,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1737,7 +1766,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1764,7 +1793,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1783,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5:J9" si="0">I5/201917</f>
+        <f t="shared" ref="J5:J10" si="0">I5/201917</f>
         <v>0</v>
       </c>
     </row>
@@ -1878,26 +1907,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="A9" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E9" s="1">
-        <v>197110</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>-33.22</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>17.97</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-0.39</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1908,117 +1937,117 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>197110</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-33.22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4">
-        <v>40848</v>
-      </c>
-      <c r="G11" s="4">
-        <v>43101</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <f>I11/123623</f>
-        <v>8.0891096317028384E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4">
+        <v>40848</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43101</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <f>I12/123623</f>
+        <v>8.0891096317028384E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>123623</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" ref="J12:J14" si="1">I12/123623</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3.11</v>
-      </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J13:J15" si="1">I13/123623</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>86</v>
@@ -2027,16 +2056,16 @@
         <v>21</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2048,7 +2077,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
@@ -2057,140 +2086,146 @@
         <v>21</v>
       </c>
       <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <f>I15/123623</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <f>I16/123623</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <f>I17/29112361</f>
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1">
-        <v>325540</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18:J31" si="2">I18/29112361</f>
+        <f>I18/29112361</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E19" s="1">
-        <v>308</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>347</v>
+        <v>325540</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J19:J32" si="2">I19/29112361</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>308</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>347</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -2202,28 +2237,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.65</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -2235,88 +2261,100 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.65</v>
       </c>
       <c r="I22" s="1">
-        <v>178159</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="2"/>
-        <v>6.1197028987102766E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E23" s="1">
-        <v>327</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>891</v>
-      </c>
-      <c r="H23" s="1">
-        <v>481.01</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>178159</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.1197028987102766E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1">
-        <v>326311</v>
+        <v>327</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>891</v>
+      </c>
+      <c r="H24" s="1">
+        <v>481.01</v>
       </c>
       <c r="I24" s="1">
-        <v>138481</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="2"/>
-        <v>4.7567766832789689E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>130</v>
+      <c r="A25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="1">
         <v>326311</v>
@@ -2331,61 +2369,49 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E26" s="1">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-13</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>-4.49</v>
+        <v>326311</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>138481</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.7567766832789689E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E27" s="1">
-        <v>215014</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
-        <v>-0.75</v>
+        <v>-13</v>
       </c>
       <c r="G27" s="1">
-        <v>6010603.9699999997</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0.04</v>
+        <v>-4.49</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2397,25 +2423,28 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1">
-        <v>16395300</v>
-      </c>
-      <c r="F28" s="3">
-        <v>42736.000092592592</v>
-      </c>
-      <c r="G28" s="3">
-        <v>43159.999895833331</v>
+        <v>215014</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6010603.9699999997</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.04</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -2426,95 +2455,92 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
+      <c r="A29" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>5</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2.19</v>
+        <v>16395300</v>
+      </c>
+      <c r="F29" s="3">
+        <v>42736.000092592592</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43159.999895833331</v>
       </c>
       <c r="I29" s="1">
-        <v>2652864</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="2"/>
-        <v>9.1125003568072002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
-        <v>10.57</v>
+        <v>2.19</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>2652864</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.1125003568072002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F31" s="1">
         <v>-1</v>
       </c>
       <c r="G31" s="1">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1">
-        <v>26.85</v>
+        <v>10.57</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2525,123 +2551,132 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <f>I33/1963031</f>
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1">
-        <v>290001</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ref="J34:J47" si="3">I34/1963031</f>
+        <f>I34/1963031</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E35" s="1">
-        <v>308</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>347</v>
-      </c>
-      <c r="H35" s="1">
-        <v>134.38999999999999</v>
+        <v>290001</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J35:J48" si="3">I35/1963031</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>308</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>347</v>
+      </c>
+      <c r="H36" s="1">
+        <v>134.38999999999999</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2653,28 +2688,19 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>999</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.68</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -2686,88 +2712,100 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.68</v>
       </c>
       <c r="I38" s="1">
-        <v>55922</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="3"/>
-        <v>2.8487578647509896E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E39" s="1">
-        <v>314</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>891</v>
-      </c>
-      <c r="H39" s="1">
-        <v>430.97</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>55922</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8487578647509896E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1">
-        <v>226129</v>
+        <v>314</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>891</v>
+      </c>
+      <c r="H40" s="1">
+        <v>430.97</v>
       </c>
       <c r="I40" s="1">
-        <v>26216</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" si="3"/>
-        <v>1.3354857870303627E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>130</v>
+      <c r="A41" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E41" s="1">
         <v>226129</v>
@@ -2782,61 +2820,49 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1.48</v>
+        <v>226129</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>26216</v>
       </c>
       <c r="J42" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3354857870303627E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1">
-        <v>75190</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>263.16000000000003</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1">
-        <v>-0.55000000000000004</v>
+        <v>1.48</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -2848,25 +2874,28 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1">
-        <v>1667025</v>
-      </c>
-      <c r="F44" s="3">
-        <v>42795.142256944448</v>
-      </c>
-      <c r="G44" s="3">
-        <v>43220.999988425923</v>
+        <v>75190</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G44" s="1">
+        <v>263.16000000000003</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-0.55000000000000004</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -2877,95 +2906,92 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
+      <c r="A45" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>5</v>
-      </c>
-      <c r="H45" s="1">
-        <v>2.2000000000000002</v>
+        <v>1667025</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42795.142256944448</v>
+      </c>
+      <c r="G45" s="3">
+        <v>43220.999988425923</v>
       </c>
       <c r="I45" s="1">
-        <v>111745</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5">
         <f t="shared" si="3"/>
-        <v>5.6924725080755217E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H46" s="1">
-        <v>10.88</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>111745</v>
       </c>
       <c r="J46" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6924725080755217E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1">
         <v>-1</v>
       </c>
       <c r="G47" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H47" s="1">
-        <v>25.98</v>
+        <v>10.88</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -2976,66 +3002,78 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="1">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>41</v>
+      </c>
+      <c r="H48" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="1">
-        <v>334633</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <f>I49/334696</f>
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E50" s="1">
         <v>334633</v>
@@ -3050,85 +3088,76 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E51" s="1">
-        <v>109391</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>112586</v>
-      </c>
-      <c r="H51" s="1">
-        <v>31028.74</v>
+        <v>334633</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" ref="J51:J71" si="4">I51/334696</f>
+        <f>I51/334696</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="1">
-        <v>324</v>
+        <v>109391</v>
       </c>
       <c r="F52" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>891</v>
+        <v>112586</v>
       </c>
       <c r="H52" s="1">
-        <v>423.13</v>
+        <v>31028.74</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J52:J72" si="4">I52/334696</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="F53" s="1">
         <v>-1</v>
       </c>
       <c r="G53" s="1">
-        <v>41</v>
+        <v>891</v>
       </c>
       <c r="H53" s="1">
-        <v>25.12</v>
+        <v>423.13</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -3140,25 +3169,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="E54" s="1">
-        <v>954</v>
+        <v>41</v>
       </c>
       <c r="F54" s="1">
-        <v>-0.06</v>
+        <v>-1</v>
       </c>
       <c r="G54" s="1">
-        <v>183.74</v>
+        <v>41</v>
       </c>
       <c r="H54" s="1">
-        <v>0.01</v>
+        <v>25.12</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -3170,22 +3199,22 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="E55" s="1">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="F55" s="1">
         <v>-0.06</v>
       </c>
       <c r="G55" s="1">
-        <v>182.08</v>
+        <v>183.74</v>
       </c>
       <c r="H55" s="1">
         <v>0.01</v>
@@ -3200,16 +3229,25 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>947</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G56" s="1">
+        <v>182.08</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.01</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -3221,16 +3259,16 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="E57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -3242,13 +3280,13 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1">
         <v>5</v>
@@ -3263,313 +3301,313 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E59" s="1">
-        <v>3372</v>
-      </c>
-      <c r="F59" s="1">
-        <v>-82.13</v>
-      </c>
-      <c r="G59" s="1">
-        <v>851844.64</v>
-      </c>
-      <c r="H59" s="1">
-        <v>13.83</v>
+        <v>5</v>
       </c>
       <c r="I59" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5">
         <f t="shared" si="4"/>
-        <v>3.8841217104476896E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="1">
-        <v>100002</v>
+        <v>3372</v>
       </c>
       <c r="F60" s="1">
-        <v>0.33</v>
+        <v>-82.13</v>
       </c>
       <c r="G60" s="1">
-        <v>61851.33</v>
+        <v>851844.64</v>
       </c>
       <c r="H60" s="1">
-        <v>1.59</v>
+        <v>13.83</v>
       </c>
       <c r="I60" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J60" s="5">
         <f t="shared" si="4"/>
-        <v>8.9633577933408233E-6</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1">
+        <v>100002</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G61" s="1">
+        <v>61851.33</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="I61" s="1">
         <v>3</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3</v>
-      </c>
-      <c r="H61" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
       </c>
       <c r="J61" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E62" s="1">
-        <v>4507</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1">
-        <v>-82.13</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>1513959</v>
+        <v>3</v>
       </c>
       <c r="H62" s="1">
-        <v>21.65</v>
+        <v>2.99</v>
       </c>
       <c r="I62" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5">
         <f t="shared" si="4"/>
-        <v>3.8841217104476896E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="1">
-        <v>135201</v>
+        <v>4507</v>
       </c>
       <c r="F63" s="1">
-        <v>0.17</v>
+        <v>-82.13</v>
       </c>
       <c r="G63" s="1">
-        <v>56077.5</v>
+        <v>1513959</v>
       </c>
       <c r="H63" s="1">
-        <v>1.89</v>
+        <v>21.65</v>
       </c>
       <c r="I63" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" si="4"/>
-        <v>8.9633577933408233E-6</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="1">
-        <v>6</v>
+        <v>135201</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G64" s="1">
-        <v>6</v>
+        <v>56077.5</v>
       </c>
       <c r="H64" s="1">
-        <v>5.95</v>
+        <v>1.89</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="1">
-        <v>5009</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1">
-        <v>-82.13</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
-        <v>2567408</v>
+        <v>6</v>
       </c>
       <c r="H65" s="1">
-        <v>25.23</v>
+        <v>5.95</v>
       </c>
       <c r="I65" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" si="4"/>
-        <v>3.8841217104476896E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" s="1">
-        <v>172916</v>
+        <v>5009</v>
       </c>
       <c r="F66" s="1">
-        <v>0.1</v>
+        <v>-82.13</v>
       </c>
       <c r="G66" s="1">
-        <v>50215.56</v>
+        <v>2567408</v>
       </c>
       <c r="H66" s="1">
-        <v>2.08</v>
+        <v>25.23</v>
       </c>
       <c r="I66" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" si="4"/>
-        <v>8.9633577933408233E-6</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" s="1">
-        <v>12</v>
+        <v>172916</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G67" s="1">
-        <v>12</v>
+        <v>50215.56</v>
       </c>
       <c r="H67" s="1">
-        <v>11.6</v>
+        <v>2.08</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>12</v>
+      </c>
+      <c r="H68" s="1">
+        <v>11.6</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -3581,25 +3619,16 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E69" s="1">
-        <v>271</v>
-      </c>
-      <c r="F69" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>347</v>
-      </c>
-      <c r="H69" s="1">
-        <v>102.92</v>
+        <v>2</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -3611,25 +3640,25 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="1">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="F70" s="1">
         <v>-1</v>
       </c>
       <c r="G70" s="1">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="H70" s="1">
-        <v>11.86</v>
+        <v>102.92</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -3641,30 +3670,60 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="1">
+        <v>25</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>24</v>
+      </c>
+      <c r="H71" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E72" s="1">
         <v>5</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F72" s="1">
         <v>1</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G72" s="1">
         <v>5</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H72" s="1">
         <v>2.38</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I72" s="1">
         <v>11887</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J72" s="5">
         <f t="shared" si="4"/>
         <v>3.5515811363147451E-2</v>
       </c>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76844748-B5E6-724C-B57E-FAF26FA9D6EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A62419-CCAB-4740-B413-A5E8A81CA5BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A62419-CCAB-4740-B413-A5E8A81CA5BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5394C3-8EB1-4C4A-85DA-A46C283402BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="feather" sheetId="5" r:id="rId2"/>
-    <sheet name="processed" sheetId="6" r:id="rId3"/>
-    <sheet name="features" sheetId="4" r:id="rId4"/>
+    <sheet name="features" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="144">
   <si>
     <t>テーブル名</t>
   </si>
@@ -581,18 +580,43 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>targetにおいて, -30&lt;:1, -30&gt;=かつ 0&lt;:2 , 0&gt;=: 3とする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1:2207, 2:100471, 3:99239)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>物理名 (青字は非特徴量)</t>
+    <t>merchant_idにlabel_encoding, historyとnew historyのデータにおけるmerchant_idを網羅している</t>
+    <rPh sb="0" eb="2">
+      <t>モウラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理名 (取り消し線は非特徴量, 青字は一致, 赤字は非一致)</t>
     <rPh sb="0" eb="2">
       <t>アオジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>anonymized category (N: 97. 89%, Y: 2.10%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>targetにおいて, -30&lt;:1, -30&gt;=かつ 0&lt;:2 , 0&gt;=: 3とする, CV用</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>history dataより少ない.けして良い???</t>
+    <rPh sb="0" eb="1">
+      <t>スクナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category_2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -603,7 +627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,8 +658,24 @@
       <charset val="128"/>
     </font>
     <font>
+      <strike/>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
@@ -675,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +738,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1693,14 +1742,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="86" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1914,10 +1963,10 @@
         <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -2209,7 +2258,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2236,7 +2285,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2317,7 +2366,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2347,7 +2396,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2368,7 +2417,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2485,7 +2534,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2518,7 +2567,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2537,7 +2586,7 @@
         <v>-1</v>
       </c>
       <c r="G31" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H31" s="1">
         <v>10.57</v>
@@ -2551,7 +2600,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2657,7 +2706,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2687,7 +2736,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2768,7 +2817,7 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2798,7 +2847,7 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2819,7 +2868,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2936,8 +2985,8 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>37</v>
+      <c r="A46" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>92</v>
@@ -2969,7 +3018,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3002,7 +3051,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3063,7 +3112,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3087,14 +3136,14 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E51" s="1">
         <v>334633</v>
@@ -3138,7 +3187,7 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3168,7 +3217,7 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3258,14 +3307,14 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -3639,7 +3688,7 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3648,6 +3697,9 @@
       <c r="C70" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D70" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E70" s="1">
         <v>271</v>
       </c>
@@ -3669,7 +3721,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3699,7 +3751,7 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3735,19 +3787,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D224C3D-3700-2046-96EE-A047D0C1D082}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101B533-10DB-2F4F-81EA-CF8BED891E21}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5394C3-8EB1-4C4A-85DA-A46C283402BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E6DC06-752B-E04B-83CF-288746DADDE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="feather" sheetId="5" r:id="rId2"/>
-    <sheet name="features" sheetId="4" r:id="rId3"/>
+    <sheet name="Processed" sheetId="6" r:id="rId3"/>
+    <sheet name="features" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="170">
   <si>
     <t>テーブル名</t>
   </si>
@@ -609,14 +610,128 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>history dataより少ない.けして良い???</t>
+    <t>category_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>first_active_diff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2018-02-28, 初回購入日との差</t>
     <rPh sb="0" eb="1">
-      <t>スクナイ</t>
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>category_2</t>
+    <t>0,1に</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>installments_minus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>installments_outlier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,1 (installments == 999)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,1 (installments == -1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払いの分割数, -1ってなんだ?, 値(0 ~ 12,NA)</t>
+    <rPh sb="0" eb="3">
+      <t>ブンカツスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_amount_diff</t>
+  </si>
+  <si>
+    <t>purchase_amount_abs</t>
+  </si>
+  <si>
+    <t>purchase_amount_abs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_amount - 平均購入金額(時間)</t>
+  </si>
+  <si>
+    <t>purchase_amount - 平均購入金額(時間)</t>
+    <rPh sb="0" eb="6">
+      <t>ヘイキンコウニュウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>abs(purchase_amount - 平均購入金額(時間))</t>
+  </si>
+  <si>
+    <t>abs(purchase_amount - 平均購入金額(時間))</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one hot encoding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reference_date_diff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>month_lagを用いた基準日との差の日数</t>
+    <rPh sb="0" eb="4">
+      <t>キジュンビトノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>history data内で, one hot encodingするので,使用しない</t>
+    <rPh sb="0" eb="1">
+      <t>ナイデ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_unique, count mean, count max, count max - count mean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Range of quantity of transactions in last active month --&gt; A &gt; B &gt; C &gt; D &gt; E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収入ランク</t>
+    <rPh sb="0" eb="2">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引量</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merchant_category_id</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -627,7 +742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,8 +795,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +822,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -715,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +875,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1742,9 +1888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C64" sqref="C64"/>
+      <selection pane="topRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2986,7 +3132,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>92</v>
@@ -3337,6 +3483,9 @@
       <c r="C58" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="D58" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E58" s="1">
         <v>5</v>
       </c>
@@ -3356,7 +3505,10 @@
         <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>166</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E59" s="1">
         <v>5</v>
@@ -3696,9 +3848,6 @@
       </c>
       <c r="C70" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E70" s="1">
         <v>271</v>
@@ -3787,11 +3936,2146 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E04FD3-95BC-574C-8A95-FEFD46E3F966}">
+  <dimension ref="A1:J84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="45.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4">
+        <v>40848</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43132</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <f>I4/201917</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1">
+        <v>201917</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6:J11" si="0">I6/201917</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>197110</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-33.22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4">
+        <v>40848</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43101</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <f>I13/123623</f>
+        <v>8.0891096317028384E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="1">
+        <v>123623</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" ref="J15:J17" si="1">I15/123623</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f>I18/123623</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f>I20/29112361</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="1">
+        <v>325540</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" ref="J21:J39" si="2">I21/29112361</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="1">
+        <v>308</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>347</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>178159</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="2"/>
+        <v>6.1197028987102766E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="1">
+        <v>327</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>891</v>
+      </c>
+      <c r="H28" s="1">
+        <v>481.01</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="1">
+        <v>326311</v>
+      </c>
+      <c r="I29" s="1">
+        <v>138481</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7567766832789689E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1">
+        <v>326311</v>
+      </c>
+      <c r="I30" s="1">
+        <v>138481</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7567766832789689E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="1">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-13</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-4.49</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="1">
+        <v>215014</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6010603.9699999997</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16395300</v>
+      </c>
+      <c r="F36" s="3">
+        <v>42736.000092592592</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43159.999895833331</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2652864</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="2"/>
+        <v>9.1125003568072002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="1">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="1">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>41</v>
+      </c>
+      <c r="H39" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <f>I41/1963031</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="1">
+        <v>290001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" ref="J42:J60" si="3">I42/1963031</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="1">
+        <v>308</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>347</v>
+      </c>
+      <c r="H43" s="1">
+        <v>134.38999999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="1">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" ref="J45" si="4">I45/29112361</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>55922</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8487578647509896E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="1">
+        <v>314</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>891</v>
+      </c>
+      <c r="H49" s="1">
+        <v>430.97</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="1">
+        <v>226129</v>
+      </c>
+      <c r="I50" s="1">
+        <v>26216</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3354857870303627E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1">
+        <v>226129</v>
+      </c>
+      <c r="I51" s="1">
+        <v>26216</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3354857870303627E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1">
+        <v>75190</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="G54" s="1">
+        <v>263.16000000000003</v>
+      </c>
+      <c r="H54" s="1">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1667025</v>
+      </c>
+      <c r="F57" s="3">
+        <v>42795.142256944448</v>
+      </c>
+      <c r="G57" s="3">
+        <v>43220.999988425923</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>111745</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6924725080755217E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="1">
+        <v>25</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>24</v>
+      </c>
+      <c r="H59" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="1">
+        <v>41</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>41</v>
+      </c>
+      <c r="H60" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="1">
+        <v>334633</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <f>I62/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="1">
+        <v>334633</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <f>I63/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1">
+      <c r="A64" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="14">
+        <v>109391</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1</v>
+      </c>
+      <c r="G64" s="14">
+        <v>112586</v>
+      </c>
+      <c r="H64" s="14">
+        <v>31028.74</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="15">
+        <f t="shared" ref="J64:J84" si="5">I64/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1">
+      <c r="A65" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="14">
+        <v>324</v>
+      </c>
+      <c r="F65" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G65" s="14">
+        <v>891</v>
+      </c>
+      <c r="H65" s="14">
+        <v>423.13</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1">
+      <c r="A66" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="14">
+        <v>41</v>
+      </c>
+      <c r="F66" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="14">
+        <v>41</v>
+      </c>
+      <c r="H66" s="14">
+        <v>25.12</v>
+      </c>
+      <c r="I66" s="14">
+        <v>0</v>
+      </c>
+      <c r="J66" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="1">
+        <v>954</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G67" s="1">
+        <v>183.74</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1">
+        <v>947</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G68" s="1">
+        <v>182.08</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1">
+      <c r="A69" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="14">
+        <v>2</v>
+      </c>
+      <c r="I69" s="14">
+        <v>0</v>
+      </c>
+      <c r="J69" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3372</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G72" s="1">
+        <v>851844.64</v>
+      </c>
+      <c r="H72" s="1">
+        <v>13.83</v>
+      </c>
+      <c r="I72" s="1">
+        <v>13</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="1">
+        <v>100002</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G73" s="1">
+        <v>61851.33</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4507</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1513959</v>
+      </c>
+      <c r="H75" s="1">
+        <v>21.65</v>
+      </c>
+      <c r="I75" s="1">
+        <v>13</v>
+      </c>
+      <c r="J75" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="1">
+        <v>135201</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G76" s="1">
+        <v>56077.5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="1">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>6</v>
+      </c>
+      <c r="H77" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5009</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2567408</v>
+      </c>
+      <c r="H78" s="1">
+        <v>25.23</v>
+      </c>
+      <c r="I78" s="1">
+        <v>13</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="1">
+        <v>172916</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>50215.56</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="I79" s="1">
+        <v>3</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="1">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>12</v>
+      </c>
+      <c r="H80" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1">
+      <c r="A82" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="14">
+        <v>271</v>
+      </c>
+      <c r="F82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="14">
+        <v>347</v>
+      </c>
+      <c r="H82" s="14">
+        <v>102.92</v>
+      </c>
+      <c r="I82" s="14">
+        <v>0</v>
+      </c>
+      <c r="J82" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1">
+      <c r="A83" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="14">
+        <v>25</v>
+      </c>
+      <c r="F83" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G83" s="14">
+        <v>24</v>
+      </c>
+      <c r="H83" s="14">
+        <v>11.86</v>
+      </c>
+      <c r="I83" s="14">
+        <v>0</v>
+      </c>
+      <c r="J83" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="14" customFormat="1">
+      <c r="A84" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="14">
+        <v>5</v>
+      </c>
+      <c r="F84" s="14">
+        <v>1</v>
+      </c>
+      <c r="G84" s="14">
+        <v>5</v>
+      </c>
+      <c r="H84" s="14">
+        <v>2.38</v>
+      </c>
+      <c r="I84" s="14">
+        <v>11887</v>
+      </c>
+      <c r="J84" s="15">
+        <f t="shared" si="5"/>
+        <v>3.5515811363147451E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A101B533-10DB-2F4F-81EA-CF8BED891E21}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E6DC06-752B-E04B-83CF-288746DADDE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C931B-9781-8D40-9DD1-BF9C17987C23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="172">
   <si>
     <t>テーブル名</t>
   </si>
@@ -732,6 +732,17 @@
   </si>
   <si>
     <t>merchant_category_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_date_diff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入日付 - lag(購入日付)</t>
+    <rPh sb="0" eb="1">
+      <t>コウニュウニヅケ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -824,7 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,9 +894,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +901,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3937,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E04FD3-95BC-574C-8A95-FEFD46E3F966}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4474,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ref="J21:J39" si="2">I21/29112361</f>
+        <f t="shared" ref="J21:J40" si="2">I21/29112361</f>
         <v>0</v>
       </c>
     </row>
@@ -4801,79 +4812,57 @@
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="2"/>
+        <f>I36/29112361</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G38" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H38" s="1">
         <v>2.19</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I38" s="1">
         <v>2652864</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J38" s="5">
         <f t="shared" si="2"/>
         <v>9.1125003568072002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="1">
-        <v>25</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>24</v>
-      </c>
-      <c r="H38" s="1">
-        <v>10.57</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>91</v>
@@ -4882,19 +4871,19 @@
         <v>160</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F39" s="1">
         <v>-1</v>
       </c>
       <c r="G39" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H39" s="1">
-        <v>26.85</v>
+        <v>10.57</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -4905,120 +4894,129 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="1">
+        <v>41</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>41</v>
+      </c>
+      <c r="H40" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <f>I41/1963031</f>
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <f>I42/1963031</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>290001</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" ref="J42:J60" si="3">I42/1963031</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="10" t="s">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" ref="J43:J62" si="3">I43/1963031</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>308</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>-1</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
         <v>347</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="1">
         <v>134.38999999999999</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -5029,56 +5027,65 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>29</v>
+      <c r="A45" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" ref="J45" si="4">I45/29112361</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" ref="J46" si="4">I46/29112361</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -5087,85 +5094,79 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>3</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I49" s="1">
         <v>55922</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J49" s="5">
         <f t="shared" si="3"/>
         <v>2.8487578647509896E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="10" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>314</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>-1</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G50" s="1">
         <v>891</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <v>430.97</v>
       </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="1">
-        <v>226129</v>
-      </c>
       <c r="I50" s="1">
-        <v>26216</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5">
         <f t="shared" si="3"/>
-        <v>1.3354857870303627E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="9" t="s">
-        <v>130</v>
+      <c r="A51" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>226129</v>
@@ -5179,108 +5180,111 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>25</v>
+      <c r="A52" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.48</v>
+        <v>226129</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>26216</v>
       </c>
       <c r="J52" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3354857870303627E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>75190</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>-0.75</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G55" s="1">
         <v>263.16000000000003</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H55" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -5290,101 +5294,64 @@
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E58" s="1">
         <v>1667025</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="3">
         <v>42795.142256944448</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="3">
         <v>43220.999988425923</v>
       </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="1">
-        <v>5</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>5</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="I58" s="1">
-        <v>111745</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5">
         <f t="shared" si="3"/>
-        <v>5.6924725080755217E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="9" t="s">
-        <v>36</v>
+      <c r="A59" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="1">
-        <v>25</v>
-      </c>
-      <c r="F59" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>24</v>
-      </c>
-      <c r="H59" s="1">
-        <v>10.88</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="9" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>91</v>
@@ -5393,269 +5360,293 @@
         <v>160</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E60" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H60" s="1">
-        <v>25.98</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>111745</v>
       </c>
       <c r="J60" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6924725080755217E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>12</v>
+      <c r="A61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1">
+        <v>25</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="8" t="s">
-        <v>33</v>
+      <c r="A62" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="1">
+        <v>41</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>41</v>
+      </c>
+      <c r="H62" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E64" s="1">
         <v>334633</v>
       </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
-        <f>I62/334696</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="9" t="s">
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>I64/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E65" s="1">
         <v>334633</v>
       </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="5">
-        <f>I63/334696</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="14" customFormat="1">
-      <c r="A64" s="14" t="s">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>I65/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="13" customFormat="1">
+      <c r="A66" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E66" s="13">
         <v>109391</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F66" s="13">
         <v>1</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G66" s="13">
         <v>112586</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H66" s="13">
         <v>31028.74</v>
       </c>
-      <c r="I64" s="14">
-        <v>0</v>
-      </c>
-      <c r="J64" s="15">
-        <f t="shared" ref="J64:J84" si="5">I64/334696</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="14" customFormat="1">
-      <c r="A65" s="16" t="s">
+      <c r="I66" s="13">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" ref="J66:J86" si="5">I66/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="13" customFormat="1">
+      <c r="A67" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E67" s="13">
         <v>324</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F67" s="13">
         <v>-1</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G67" s="13">
         <v>891</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H67" s="13">
         <v>423.13</v>
       </c>
-      <c r="I65" s="14">
-        <v>0</v>
-      </c>
-      <c r="J65" s="15">
+      <c r="I67" s="13">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1">
-      <c r="A66" s="13" t="s">
+    <row r="68" spans="1:10" s="13" customFormat="1">
+      <c r="A68" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E68" s="13">
         <v>41</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F68" s="13">
         <v>-1</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G68" s="13">
         <v>41</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H68" s="13">
         <v>25.12</v>
       </c>
-      <c r="I66" s="14">
-        <v>0</v>
-      </c>
-      <c r="J66" s="15">
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E69" s="1">
         <v>954</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F69" s="1">
         <v>-0.06</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G69" s="1">
         <v>183.74</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H69" s="1">
         <v>0.01</v>
       </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="1">
-        <v>947</v>
-      </c>
-      <c r="F68" s="1">
-        <v>-0.06</v>
-      </c>
-      <c r="G68" s="1">
-        <v>182.08</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="14" customFormat="1">
-      <c r="A69" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" s="14">
-        <v>2</v>
-      </c>
-      <c r="I69" s="14">
-        <v>0</v>
-      </c>
-      <c r="J69" s="15">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="E70" s="1">
-        <v>5</v>
+        <v>947</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G70" s="1">
+        <v>182.08</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.01</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -5665,401 +5656,443 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:10" s="13" customFormat="1">
+      <c r="A71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="1">
-        <v>5</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5">
+      <c r="C71" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="13">
+        <v>2</v>
+      </c>
+      <c r="I71" s="13">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E72" s="1">
-        <v>3372</v>
-      </c>
-      <c r="F72" s="1">
-        <v>-82.13</v>
-      </c>
-      <c r="G72" s="1">
-        <v>851844.64</v>
-      </c>
-      <c r="H72" s="1">
-        <v>13.83</v>
+        <v>5</v>
       </c>
       <c r="I72" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J72" s="5">
         <f t="shared" si="5"/>
-        <v>3.8841217104476896E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E73" s="1">
-        <v>100002</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G73" s="1">
-        <v>61851.33</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1.59</v>
+        <v>5</v>
       </c>
       <c r="I73" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" si="5"/>
-        <v>8.9633577933408233E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="1">
-        <v>3</v>
+        <v>3372</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>-82.13</v>
       </c>
       <c r="G74" s="1">
-        <v>3</v>
+        <v>851844.64</v>
       </c>
       <c r="H74" s="1">
-        <v>2.99</v>
+        <v>13.83</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J74" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="1">
-        <v>4507</v>
+        <v>100002</v>
       </c>
       <c r="F75" s="1">
-        <v>-82.13</v>
+        <v>0.33</v>
       </c>
       <c r="G75" s="1">
-        <v>1513959</v>
+        <v>61851.33</v>
       </c>
       <c r="H75" s="1">
-        <v>21.65</v>
+        <v>1.59</v>
       </c>
       <c r="I75" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" si="5"/>
-        <v>3.8841217104476896E-5</v>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E76" s="1">
-        <v>135201</v>
+        <v>3</v>
       </c>
       <c r="F76" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
-        <v>56077.5</v>
+        <v>3</v>
       </c>
       <c r="H76" s="1">
-        <v>1.89</v>
+        <v>2.99</v>
       </c>
       <c r="I76" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" si="5"/>
-        <v>8.9633577933408233E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E77" s="1">
-        <v>6</v>
+        <v>4507</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>-82.13</v>
       </c>
       <c r="G77" s="1">
-        <v>6</v>
+        <v>1513959</v>
       </c>
       <c r="H77" s="1">
-        <v>5.95</v>
+        <v>21.65</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J77" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1">
-        <v>5009</v>
+        <v>135201</v>
       </c>
       <c r="F78" s="1">
-        <v>-82.13</v>
+        <v>0.17</v>
       </c>
       <c r="G78" s="1">
-        <v>2567408</v>
+        <v>56077.5</v>
       </c>
       <c r="H78" s="1">
-        <v>25.23</v>
+        <v>1.89</v>
       </c>
       <c r="I78" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J78" s="5">
         <f t="shared" si="5"/>
-        <v>3.8841217104476896E-5</v>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1">
-        <v>172916</v>
+        <v>6</v>
       </c>
       <c r="F79" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
-        <v>50215.56</v>
+        <v>6</v>
       </c>
       <c r="H79" s="1">
-        <v>2.08</v>
+        <v>5.95</v>
       </c>
       <c r="I79" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" s="5">
         <f t="shared" si="5"/>
-        <v>8.9633577933408233E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E80" s="1">
-        <v>12</v>
+        <v>5009</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
+        <v>-82.13</v>
       </c>
       <c r="G80" s="1">
-        <v>12</v>
+        <v>2567408</v>
       </c>
       <c r="H80" s="1">
-        <v>11.6</v>
+        <v>25.23</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J80" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.8841217104476896E-5</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>92</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>172916</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>50215.56</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.08</v>
       </c>
       <c r="I81" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="14" customFormat="1">
-      <c r="A82" s="16" t="s">
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="1">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>12</v>
+      </c>
+      <c r="H82" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="13" customFormat="1">
+      <c r="A84" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E84" s="13">
         <v>271</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F84" s="13">
         <v>-1</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G84" s="13">
         <v>347</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H84" s="13">
         <v>102.92</v>
       </c>
-      <c r="I82" s="14">
-        <v>0</v>
-      </c>
-      <c r="J82" s="15">
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1">
-      <c r="A83" s="13" t="s">
+    <row r="85" spans="1:10" s="13" customFormat="1">
+      <c r="A85" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E85" s="13">
         <v>25</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F85" s="13">
         <v>-1</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G85" s="13">
         <v>24</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H85" s="13">
         <v>11.86</v>
       </c>
-      <c r="I83" s="14">
-        <v>0</v>
-      </c>
-      <c r="J83" s="15">
+      <c r="I85" s="13">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1">
-      <c r="A84" s="13" t="s">
+    <row r="86" spans="1:10" s="13" customFormat="1">
+      <c r="A86" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C86" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E86" s="13">
         <v>5</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F86" s="13">
         <v>1</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G86" s="13">
         <v>5</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H86" s="13">
         <v>2.38</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I86" s="13">
         <v>11887</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J86" s="14">
         <f t="shared" si="5"/>
         <v>3.5515811363147451E-2</v>
       </c>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C931B-9781-8D40-9DD1-BF9C17987C23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C434B1-3DD6-9A49-B85D-2A26B2FD6BE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="174">
   <si>
     <t>テーブル名</t>
   </si>
@@ -743,6 +743,14 @@
     <rPh sb="0" eb="1">
       <t>コウニュウニヅケ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cOUNT(DISTNCT)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_unique, n_missing, count mean, count max, count min, count sd</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -854,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +912,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C71" sqref="C71"/>
     </sheetView>
@@ -3950,8 +3961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E04FD3-95BC-574C-8A95-FEFD46E3F966}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5004,7 +5015,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E44" s="1">
         <v>308</v>
@@ -5139,7 +5150,7 @@
         <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E50" s="1">
         <v>314</v>
@@ -5476,23 +5487,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:10" s="13" customFormat="1">
+      <c r="A64" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="13">
         <v>334633</v>
       </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="5">
+      <c r="I64" s="13">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
         <f>I64/334696</f>
         <v>0</v>
       </c>
@@ -5879,8 +5890,8 @@
       <c r="D79" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="1">
-        <v>6</v>
+      <c r="E79" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F79" s="1">
         <v>1</v>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C434B1-3DD6-9A49-B85D-2A26B2FD6BE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF75519-B9C8-8A4D-AA75-5899B2806126}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="184">
   <si>
     <t>テーブル名</t>
   </si>
@@ -618,9 +618,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>2018-02-28, 初回購入日との差</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
@@ -659,13 +656,7 @@
   </si>
   <si>
     <t>purchase_amount_abs</t>
-  </si>
-  <si>
-    <t>purchase_amount_abs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>purchase_amount - 平均購入金額(時間)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>purchase_amount - 平均購入金額(時間)</t>
@@ -676,13 +667,6 @@
   </si>
   <si>
     <t>abs(purchase_amount - 平均購入金額(時間))</t>
-  </si>
-  <si>
-    <t>abs(purchase_amount - 平均購入金額(時間))</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>purchase_date</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -750,7 +734,86 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>n_unique, n_missing, count mean, count max, count min, count sd</t>
+    <t>purchase_month</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_wday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入月</t>
+    <rPh sb="0" eb="1">
+      <t>コウニュウツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入曜日</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transactions</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>holiday_list.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Holiday_info</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>祝日:2, 土日を除く祝前日:1</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>normal_holiday</t>
+  </si>
+  <si>
+    <t>public_holiday</t>
+  </si>
+  <si>
+    <t>public_pre_holiday</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平日or土日</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>祝日orそうでない</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>祝前日orそうでない</t>
+    <rPh sb="0" eb="1">
+      <t>シュクゼンジツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -761,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -814,13 +877,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -862,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,12 +950,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1231,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1868,7 +1918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="1:10">
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
@@ -1876,7 +1926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:10">
       <c r="B66" s="1" t="s">
         <v>35</v>
       </c>
@@ -1884,7 +1934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="1:10">
       <c r="B67" s="1" t="s">
         <v>36</v>
       </c>
@@ -1892,12 +1942,54 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="1:10">
       <c r="B68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3598,7 @@
         <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E58" s="1">
         <v>5</v>
@@ -3527,10 +3619,10 @@
         <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E59" s="1">
         <v>5</v>
@@ -3959,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E04FD3-95BC-574C-8A95-FEFD46E3F966}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3992,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>94</v>
@@ -4067,7 +4159,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4307,7 +4399,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4426,12 +4518,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -4460,24 +4550,9 @@
         <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <f>I20/29112361</f>
-        <v>0</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
@@ -4489,16 +4564,7 @@
       <c r="D21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="1">
-        <v>325540</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" ref="J21:J40" si="2">I21/29112361</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="10" t="s">
@@ -4508,24 +4574,9 @@
         <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="1">
-        <v>308</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>347</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
@@ -4535,21 +4586,12 @@
         <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
@@ -4559,52 +4601,31 @@
         <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="1">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="J26" s="5"/>
     </row>
@@ -4616,21 +4637,12 @@
         <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="I27" s="1">
-        <v>178159</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="2"/>
-        <v>6.1197028987102766E-3</v>
-      </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
@@ -4640,27 +4652,9 @@
         <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="1">
-        <v>327</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>891</v>
-      </c>
-      <c r="H28" s="1">
-        <v>481.01</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="8" t="s">
@@ -4669,16 +4663,7 @@
       <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="1">
-        <v>326311</v>
-      </c>
-      <c r="I29" s="1">
-        <v>138481</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="2"/>
-        <v>4.7567766832789689E-3</v>
-      </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
@@ -4690,16 +4675,7 @@
       <c r="D30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="1">
-        <v>326311</v>
-      </c>
-      <c r="I30" s="1">
-        <v>138481</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="2"/>
-        <v>4.7567766832789689E-3</v>
-      </c>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -4709,40 +4685,22 @@
         <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="1">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-13</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>-4.49</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -4756,47 +4714,29 @@
       <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1">
-        <v>215014</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="G33" s="1">
-        <v>6010603.9699999997</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J35" s="5"/>
     </row>
@@ -4810,1307 +4750,780 @@
       <c r="D36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="1">
-        <v>16395300</v>
-      </c>
-      <c r="F36" s="3">
-        <v>42736.000092592592</v>
-      </c>
-      <c r="G36" s="3">
-        <v>43159.999895833331</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5">
-        <f>I36/29112361</f>
-        <v>0</v>
-      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="1">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>5</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2.19</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2652864</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="2"/>
-        <v>9.1125003568072002E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="1">
-        <v>25</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>24</v>
-      </c>
-      <c r="H39" s="1">
-        <v>10.57</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="9" t="s">
-        <v>32</v>
+      <c r="A40" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="1">
-        <v>41</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>41</v>
-      </c>
-      <c r="H40" s="1">
-        <v>26.85</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>12</v>
+      <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <f>I42/1963031</f>
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
+      <c r="A43" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="1">
-        <v>290001</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" ref="J43:J62" si="3">I43/1963031</f>
-        <v>0</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="10" t="s">
-        <v>35</v>
+      <c r="A44" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="1">
-        <v>308</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>347</v>
-      </c>
-      <c r="H44" s="1">
-        <v>134.38999999999999</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1">
+      <c r="A47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="11">
+        <v>334633</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <f>I47/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="1">
+        <v>334633</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <f>I48/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="11" customFormat="1">
+      <c r="A49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="1">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>12</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" ref="J46" si="4">I46/29112361</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="E49" s="11">
+        <v>109391</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="11">
+        <v>112586</v>
+      </c>
+      <c r="H49" s="11">
+        <v>31028.74</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" ref="J49:J69" si="2">I49/334696</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="11" customFormat="1">
+      <c r="A50" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2</v>
-      </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="E50" s="11">
+        <v>324</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="11">
+        <v>891</v>
+      </c>
+      <c r="H50" s="11">
+        <v>423.13</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="11" customFormat="1">
+      <c r="A51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="I49" s="1">
-        <v>55922</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="3"/>
-        <v>2.8487578647509896E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="1">
-        <v>314</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="C51" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="11">
+        <v>41</v>
+      </c>
+      <c r="F51" s="11">
         <v>-1</v>
       </c>
-      <c r="G50" s="1">
-        <v>891</v>
-      </c>
-      <c r="H50" s="1">
-        <v>430.97</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="1">
-        <v>226129</v>
-      </c>
-      <c r="I51" s="1">
-        <v>26216</v>
-      </c>
-      <c r="J51" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3354857870303627E-2</v>
+      <c r="G51" s="11">
+        <v>41</v>
+      </c>
+      <c r="H51" s="11">
+        <v>25.12</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="9" t="s">
-        <v>130</v>
+      <c r="A52" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E52" s="1">
-        <v>226129</v>
+        <v>954</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G52" s="1">
+        <v>183.74</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.01</v>
       </c>
       <c r="I52" s="1">
-        <v>26216</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3354857870303627E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="1">
+        <v>947</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="G53" s="1">
+        <v>182.08</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="11" customFormat="1">
+      <c r="A54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="C54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="11">
         <v>2</v>
       </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.48</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J54" s="5"/>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="1">
-        <v>75190</v>
-      </c>
-      <c r="F55" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="G55" s="1">
-        <v>263.16000000000003</v>
-      </c>
-      <c r="H55" s="1">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="12"/>
+      <c r="D57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3372</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G57" s="1">
+        <v>851844.64</v>
+      </c>
+      <c r="H57" s="1">
+        <v>13.83</v>
+      </c>
+      <c r="I57" s="1">
+        <v>13</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="7" t="s">
-        <v>159</v>
+      <c r="A58" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1">
-        <v>1667025</v>
-      </c>
-      <c r="F58" s="3">
-        <v>42795.142256944448</v>
-      </c>
-      <c r="G58" s="3">
-        <v>43220.999988425923</v>
+        <v>100002</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G58" s="1">
+        <v>61851.33</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.59</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.9633577933408233E-6</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>171</v>
+        <v>113</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="9" t="s">
-        <v>142</v>
+      <c r="A60" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4507</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1513959</v>
+      </c>
+      <c r="H60" s="1">
+        <v>21.65</v>
+      </c>
+      <c r="I60" s="1">
+        <v>13</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="1">
+        <v>135201</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G61" s="1">
+        <v>56077.5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="2"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5009</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-82.13</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2567408</v>
+      </c>
+      <c r="H63" s="1">
+        <v>25.23</v>
+      </c>
+      <c r="I63" s="1">
+        <v>13</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8841217104476896E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="1">
+        <v>172916</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>50215.56</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="2"/>
+        <v>8.9633577933408233E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="1">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="C66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="11" customFormat="1">
+      <c r="A67" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="11">
+        <v>271</v>
+      </c>
+      <c r="F67" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="11">
+        <v>347</v>
+      </c>
+      <c r="H67" s="11">
+        <v>102.92</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="11" customFormat="1">
+      <c r="A68" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="11">
+        <v>25</v>
+      </c>
+      <c r="F68" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G68" s="11">
+        <v>24</v>
+      </c>
+      <c r="H68" s="11">
+        <v>11.86</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="11" customFormat="1">
+      <c r="A69" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="11">
         <v>5</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F69" s="11">
         <v>1</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G69" s="11">
         <v>5</v>
       </c>
-      <c r="H60" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I60" s="1">
-        <v>111745</v>
-      </c>
-      <c r="J60" s="5">
-        <f t="shared" si="3"/>
-        <v>5.6924725080755217E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="1">
-        <v>25</v>
-      </c>
-      <c r="F61" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G61" s="1">
-        <v>24</v>
-      </c>
-      <c r="H61" s="1">
-        <v>10.88</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="1">
-        <v>41</v>
-      </c>
-      <c r="F62" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>41</v>
-      </c>
-      <c r="H62" s="1">
-        <v>25.98</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="13" customFormat="1">
-      <c r="A64" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="13">
-        <v>334633</v>
-      </c>
-      <c r="I64" s="13">
-        <v>0</v>
-      </c>
-      <c r="J64" s="14">
-        <f>I64/334696</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="1">
-        <v>334633</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5">
-        <f>I65/334696</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="13" customFormat="1">
-      <c r="A66" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="13">
-        <v>109391</v>
-      </c>
-      <c r="F66" s="13">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13">
-        <v>112586</v>
-      </c>
-      <c r="H66" s="13">
-        <v>31028.74</v>
-      </c>
-      <c r="I66" s="13">
-        <v>0</v>
-      </c>
-      <c r="J66" s="14">
-        <f t="shared" ref="J66:J86" si="5">I66/334696</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="13" customFormat="1">
-      <c r="A67" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="13">
-        <v>324</v>
-      </c>
-      <c r="F67" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G67" s="13">
-        <v>891</v>
-      </c>
-      <c r="H67" s="13">
-        <v>423.13</v>
-      </c>
-      <c r="I67" s="13">
-        <v>0</v>
-      </c>
-      <c r="J67" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="13" customFormat="1">
-      <c r="A68" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="13">
-        <v>41</v>
-      </c>
-      <c r="F68" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G68" s="13">
-        <v>41</v>
-      </c>
-      <c r="H68" s="13">
-        <v>25.12</v>
-      </c>
-      <c r="I68" s="13">
-        <v>0</v>
-      </c>
-      <c r="J68" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="1">
-        <v>954</v>
-      </c>
-      <c r="F69" s="1">
-        <v>-0.06</v>
-      </c>
-      <c r="G69" s="1">
-        <v>183.74</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="1">
-        <v>947</v>
-      </c>
-      <c r="F70" s="1">
-        <v>-0.06</v>
-      </c>
-      <c r="G70" s="1">
-        <v>182.08</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="13" customFormat="1">
-      <c r="A71" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="13">
-        <v>2</v>
-      </c>
-      <c r="I71" s="13">
-        <v>0</v>
-      </c>
-      <c r="J71" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="1">
-        <v>5</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="J72" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="1">
-        <v>5</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="1">
-        <v>3372</v>
-      </c>
-      <c r="F74" s="1">
-        <v>-82.13</v>
-      </c>
-      <c r="G74" s="1">
-        <v>851844.64</v>
-      </c>
-      <c r="H74" s="1">
-        <v>13.83</v>
-      </c>
-      <c r="I74" s="1">
-        <v>13</v>
-      </c>
-      <c r="J74" s="5">
-        <f t="shared" si="5"/>
-        <v>3.8841217104476896E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="1">
-        <v>100002</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G75" s="1">
-        <v>61851.33</v>
-      </c>
-      <c r="H75" s="1">
-        <v>1.59</v>
-      </c>
-      <c r="I75" s="1">
-        <v>3</v>
-      </c>
-      <c r="J75" s="5">
-        <f t="shared" si="5"/>
-        <v>8.9633577933408233E-6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="1">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1">
-        <v>3</v>
-      </c>
-      <c r="H76" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="1">
-        <v>4507</v>
-      </c>
-      <c r="F77" s="1">
-        <v>-82.13</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1513959</v>
-      </c>
-      <c r="H77" s="1">
-        <v>21.65</v>
-      </c>
-      <c r="I77" s="1">
-        <v>13</v>
-      </c>
-      <c r="J77" s="5">
-        <f t="shared" si="5"/>
-        <v>3.8841217104476896E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="1">
-        <v>135201</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G78" s="1">
-        <v>56077.5</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1.89</v>
-      </c>
-      <c r="I78" s="1">
-        <v>3</v>
-      </c>
-      <c r="J78" s="5">
-        <f t="shared" si="5"/>
-        <v>8.9633577933408233E-6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1">
-        <v>6</v>
-      </c>
-      <c r="H79" s="1">
-        <v>5.95</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0</v>
-      </c>
-      <c r="J79" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="1">
-        <v>5009</v>
-      </c>
-      <c r="F80" s="1">
-        <v>-82.13</v>
-      </c>
-      <c r="G80" s="1">
-        <v>2567408</v>
-      </c>
-      <c r="H80" s="1">
-        <v>25.23</v>
-      </c>
-      <c r="I80" s="1">
-        <v>13</v>
-      </c>
-      <c r="J80" s="5">
-        <f t="shared" si="5"/>
-        <v>3.8841217104476896E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="1">
-        <v>172916</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G81" s="1">
-        <v>50215.56</v>
-      </c>
-      <c r="H81" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="I81" s="1">
-        <v>3</v>
-      </c>
-      <c r="J81" s="5">
-        <f t="shared" si="5"/>
-        <v>8.9633577933408233E-6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="1">
-        <v>12</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1">
-        <v>12</v>
-      </c>
-      <c r="H82" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="1">
-        <v>2</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0</v>
-      </c>
-      <c r="J83" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="13" customFormat="1">
-      <c r="A84" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E84" s="13">
-        <v>271</v>
-      </c>
-      <c r="F84" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G84" s="13">
-        <v>347</v>
-      </c>
-      <c r="H84" s="13">
-        <v>102.92</v>
-      </c>
-      <c r="I84" s="13">
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="13" customFormat="1">
-      <c r="A85" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="13">
-        <v>25</v>
-      </c>
-      <c r="F85" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G85" s="13">
-        <v>24</v>
-      </c>
-      <c r="H85" s="13">
-        <v>11.86</v>
-      </c>
-      <c r="I85" s="13">
-        <v>0</v>
-      </c>
-      <c r="J85" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="13" customFormat="1">
-      <c r="A86" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E86" s="13">
-        <v>5</v>
-      </c>
-      <c r="F86" s="13">
-        <v>1</v>
-      </c>
-      <c r="G86" s="13">
-        <v>5</v>
-      </c>
-      <c r="H86" s="13">
+      <c r="H69" s="11">
         <v>2.38</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I69" s="11">
         <v>11887</v>
       </c>
-      <c r="J86" s="14">
-        <f t="shared" si="5"/>
+      <c r="J69" s="12">
+        <f t="shared" si="2"/>
         <v>3.5515811363147451E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF75519-B9C8-8A4D-AA75-5899B2806126}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546CDDD8-1EF4-6E48-BF00-473E1082DAD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="190">
   <si>
     <t>テーブル名</t>
   </si>
@@ -603,13 +603,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>targetにおいて, -30&lt;:1, -30&gt;=かつ 0&lt;:2 , 0&gt;=: 3とする, CV用</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>category_2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -625,10 +618,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0,1に</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>installments_minus</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -696,10 +685,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>n_unique, count mean, count max, count max - count mean</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Range of quantity of transactions in last active month --&gt; A &gt; B &gt; C &gt; D &gt; E</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -730,10 +715,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cOUNT(DISTNCT)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>purchase_month</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -814,6 +795,52 @@
     <rPh sb="0" eb="1">
       <t>シュクゼンジツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aggregated_history</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authorized_mean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>authorized_sum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transaction_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aggregated_new</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>purchase_hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2510969, 26595452, 1963031</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>targetにおいて, -30&lt;:1, -other :2とする, CV用</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_unique, n_missing</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -918,7 +945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +993,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,7 +1986,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1978,18 +2011,18 @@
     </row>
     <row r="70" spans="1:10">
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2002,9 +2035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66356-3ADB-4543-9D45-2E66A647BD0B}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C71" sqref="C71"/>
+      <selection pane="topRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2226,7 +2259,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3246,7 +3279,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>92</v>
@@ -3598,7 +3631,7 @@
         <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1">
         <v>5</v>
@@ -3619,10 +3652,10 @@
         <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E59" s="1">
         <v>5</v>
@@ -4051,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E04FD3-95BC-574C-8A95-FEFD46E3F966}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="92" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4084,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>94</v>
@@ -4153,13 +4186,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4287,7 +4320,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -4393,13 +4426,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4518,10 +4551,12 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -4544,286 +4579,288 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
+      <c r="A29" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>131</v>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>152</v>
+      <c r="A35" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="7" t="s">
-        <v>26</v>
+      <c r="A36" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="J36" s="5"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4834,7 +4871,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>111</v>
@@ -4849,7 +4886,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>103</v>
@@ -4864,7 +4901,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>104</v>
@@ -4970,7 +5007,7 @@
     </row>
     <row r="50" spans="1:10" s="11" customFormat="1">
       <c r="A50" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>86</v>
@@ -5003,7 +5040,7 @@
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" s="11">
         <v>41</v>
@@ -5087,7 +5124,7 @@
         <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E54" s="11">
         <v>2</v>
@@ -5108,7 +5145,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
@@ -5129,7 +5166,7 @@
         <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="1">
         <v>5</v>
@@ -5302,8 +5339,8 @@
       <c r="D62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>167</v>
+      <c r="E62" s="1">
+        <v>6</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -5420,7 +5457,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -5468,7 +5505,7 @@
         <v>86</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E68" s="11">
         <v>25</v>
@@ -5498,7 +5535,7 @@
         <v>91</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E69" s="11">
         <v>5</v>
@@ -5518,6 +5555,102 @@
       <c r="J69" s="12">
         <f t="shared" si="2"/>
         <v>3.5515811363147451E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="16">
+        <v>325540</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="17">
+        <v>290001</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546CDDD8-1EF4-6E48-BF00-473E1082DAD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC37E88-2E2E-F943-8EF2-25D9A3866A2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="191">
   <si>
     <t>テーブル名</t>
   </si>
@@ -841,6 +841,13 @@
   </si>
   <si>
     <t>n_unique, n_missing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>targetにおいて, -30&lt;:1, -other :0とする, CV用</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4086,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E04FD3-95BC-574C-8A95-FEFD46E3F966}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4320,7 +4327,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Elo_kaggle/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC37E88-2E2E-F943-8EF2-25D9A3866A2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9B7F2-C4BF-F645-8A77-920857BED2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -4094,7 +4094,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
